--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H2">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I2">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J2">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>167.3079295382607</v>
+        <v>323.6855453357761</v>
       </c>
       <c r="R2">
-        <v>1505.771365844346</v>
+        <v>2913.169908021984</v>
       </c>
       <c r="S2">
-        <v>0.03193561716404498</v>
+        <v>0.04044689433988104</v>
       </c>
       <c r="T2">
-        <v>0.03193561716404499</v>
+        <v>0.04044689433988103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H3">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I3">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J3">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
-        <v>52.65154933887</v>
+        <v>57.823640567355</v>
       </c>
       <c r="R3">
-        <v>473.86394404983</v>
+        <v>520.412765106195</v>
       </c>
       <c r="S3">
-        <v>0.01005008983985696</v>
+        <v>0.007225490029061755</v>
       </c>
       <c r="T3">
-        <v>0.01005008983985696</v>
+        <v>0.007225490029061755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465615333333333</v>
+        <v>1.609586333333333</v>
       </c>
       <c r="H4">
-        <v>4.396846</v>
+        <v>4.828759</v>
       </c>
       <c r="I4">
-        <v>0.04672291954663727</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="J4">
-        <v>0.04672291954663728</v>
+        <v>0.05107819292772156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
-        <v>24.81784580008222</v>
+        <v>27.25576385157889</v>
       </c>
       <c r="R4">
-        <v>223.36061220074</v>
+        <v>245.30187466421</v>
       </c>
       <c r="S4">
-        <v>0.004737212542735331</v>
+        <v>0.003405808558778773</v>
       </c>
       <c r="T4">
-        <v>0.004737212542735332</v>
+        <v>0.003405808558778772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I5">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J5">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>2155.525125712736</v>
+        <v>3797.218556885953</v>
       </c>
       <c r="R5">
-        <v>19399.72613141462</v>
+        <v>34174.96701197357</v>
       </c>
       <c r="S5">
-        <v>0.4114450844752083</v>
+        <v>0.4744904428663294</v>
       </c>
       <c r="T5">
-        <v>0.4114450844752083</v>
+        <v>0.4744904428663293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I6">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J6">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
         <v>678.3404577467101</v>
@@ -818,10 +818,10 @@
         <v>6105.06411972039</v>
       </c>
       <c r="S6">
-        <v>0.1294811383134589</v>
+        <v>0.0847636393292945</v>
       </c>
       <c r="T6">
-        <v>0.1294811383134589</v>
+        <v>0.0847636393292945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>56.64711800000001</v>
       </c>
       <c r="I7">
-        <v>0.6019584804341267</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="J7">
-        <v>0.6019584804341268</v>
+        <v>0.5992082897496871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
         <v>319.7427063724912</v>
@@ -880,10 +880,10 @@
         <v>2877.68435735242</v>
       </c>
       <c r="S7">
-        <v>0.06103225764545958</v>
+        <v>0.03995420755406329</v>
       </c>
       <c r="T7">
-        <v>0.06103225764545959</v>
+        <v>0.03995420755406329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>11.020243</v>
       </c>
       <c r="H8">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J8">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N8">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O8">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P8">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q8">
-        <v>1258.020435106331</v>
+        <v>2216.155350797856</v>
       </c>
       <c r="R8">
-        <v>11322.18391595698</v>
+        <v>19945.39815718071</v>
       </c>
       <c r="S8">
-        <v>0.2401300351452472</v>
+        <v>0.2769249433782968</v>
       </c>
       <c r="T8">
-        <v>0.2401300351452472</v>
+        <v>0.2769249433782968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>11.020243</v>
       </c>
       <c r="H9">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J9">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q9">
-        <v>395.8971053620049</v>
+        <v>395.897105362005</v>
       </c>
       <c r="R9">
         <v>3563.073948258045</v>
       </c>
       <c r="S9">
-        <v>0.07556855450956534</v>
+        <v>0.04947026093930404</v>
       </c>
       <c r="T9">
-        <v>0.07556855450956536</v>
+        <v>0.04947026093930404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>11.020243</v>
       </c>
       <c r="H10">
-        <v>33.06072899999999</v>
+        <v>33.060729</v>
       </c>
       <c r="I10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="J10">
-        <v>0.351318600019236</v>
+        <v>0.3497135173225914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P10">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q10">
-        <v>186.6101460820566</v>
+        <v>186.6101460820567</v>
       </c>
       <c r="R10">
         <v>1679.49131473851</v>
       </c>
       <c r="S10">
-        <v>0.03562001036442343</v>
+        <v>0.02331831300499064</v>
       </c>
       <c r="T10">
-        <v>0.03562001036442343</v>
+        <v>0.02331831300499063</v>
       </c>
     </row>
   </sheetData>
